--- a/Excel Files/PQ Challenges/PQ Challenge 14 Problem.xlsx
+++ b/Excel Files/PQ Challenges/PQ Challenge 14 Problem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PQ Challenges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\Excel-BI-Python\Excel Files\PQ Challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E3FF07-756E-45F1-A666-0FD561FB8E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B43CF52-64A2-406F-8838-F87DE5CD9FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{5A414AE0-D96B-4E10-8F7D-16A6D6B125E5}"/>
   </bookViews>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,13 +1317,42 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="1736" row="10">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{6E25D7FC-0358-413D-A3E3-7FBD1737360B}">
+  <we:reference id="wa200003696" version="1.2.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200003696" version="1.2.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{C21E0ABB-605D-4373-B986-AD1230B4EACB}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CEF415-A0B4-4607-8572-40FF2681BEC5}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,7 +1361,7 @@
     <col min="11" max="11" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1318,71 +1369,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2:L20">_xlfn.LAMBDA(_xlpm.Step, _xlfn.LET(_xlpm.Step2, A2:A20, _xlpm.Seq, _xlfn.SEQUENCE(ROWS(_xlpm.Step)), _xlfn.SCAN(INDEX(_xlpm.Step, 1, 1), _xlpm.Seq, _xlfn.LAMBDA(_xlpm.Acc,_xlpm.Curr, _xlfn.LET(_xlpm.CurrentIndexChar, INDEX(_xlpm.Step, _xlpm.Curr, 1), _xlpm.PreviousChar, LEFT(_xlpm.Acc, LEN(_xlpm.CurrentIndexChar)), _xlpm.PreviousCharNumber, IFERROR(_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(_xlpm.Acc, "("), ")"), 1), _xlpm.CodeDiff, CODE(_xlpm.CurrentIndexChar) - CODE(_xlpm.PreviousChar), _xlpm.NumberCorrected, IF(_xlpm.CodeDiff &lt; 0, _xlpm.PreviousCharNumber + 1, _xlpm.PreviousCharNumber), _xlpm.Result, IF(_xlpm.NumberCorrected = 1, _xlpm.CurrentIndexChar, _xlpm.CurrentIndexChar &amp; " (" &amp; _xlpm.NumberCorrected &amp; ")"), _xlpm.Result)))))(A2:A20)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L3" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L4" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L5" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L6" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L7" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L8" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L9" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="str">
         <f t="shared" ref="A10:A19" si="0">_xlfn.TEXTBEFORE(C10," ")</f>
         <v>A</v>
@@ -1390,8 +1466,11 @@
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L10" t="str">
+        <v>A (2)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
@@ -1399,8 +1478,11 @@
       <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L11" t="str">
+        <v>C (2)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
@@ -1408,24 +1490,33 @@
       <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L12" t="str">
+        <v>C (2)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L13" t="str">
+        <v>C (2)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L14" t="str">
+        <v>B (3)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
@@ -1433,8 +1524,11 @@
       <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L15" t="str">
+        <v>B (3)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
@@ -1442,8 +1536,11 @@
       <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L16" t="str">
+        <v>B (3)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
@@ -1451,8 +1548,11 @@
       <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L17" t="str">
+        <v>D (3)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
@@ -1460,8 +1560,11 @@
       <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L18" t="str">
+        <v>C (4)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
@@ -1469,13 +1572,19 @@
       <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="L19" t="str">
+        <v>C (4)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="L20" t="str">
+        <v>A (5)</v>
       </c>
     </row>
   </sheetData>
@@ -1483,4 +1592,16 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C21E0ABB-605D-4373-B986-AD1230B4EACB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>